--- a/ItemThrowing/PSM-C2.xlsx
+++ b/ItemThrowing/PSM-C2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJATK\4th\PSM\CwiczeniaPSM\ItemThrowing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD8444A-C8A9-4853-965B-647DD356C20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361A099-94B8-4A70-A460-06C3BDC60E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1232,16 +1232,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1824,7 +1824,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
